--- a/Documentação/Resultados testes.xlsx
+++ b/Documentação/Resultados testes.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1e3f9e3de4d329a/Documentos/GitHub/HostelAllocation/Documentação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanw\OneDrive\Documentos\GitHub\HostelAllocation\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{A2BA6200-9358-457A-B2F1-12CAB8B2C377}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{0AA74A41-7368-4FA4-9394-E6C061FC2BCC}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{A2BA6200-9358-457A-B2F1-12CAB8B2C377}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E3D75C70-75A5-4C65-ABE8-36E48719A298}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{054A2B3A-9A9B-46C0-99D5-8690FA6BA2B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Segundo Modelo" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Segundo Modelo'!$A$1:$H$12</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -314,32 +317,32 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="#,##0">
+                <c:pt idx="0">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2312421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17911279999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4008978000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.882545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.9428971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.9428971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4249906000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
                   <c:v>7.1230355000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.28586E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43360870000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2555</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2312421</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17911279999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4008978000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51.882545</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.9428971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -351,37 +354,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>9810</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9040</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14980</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17836</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1910</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>732</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2328</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3486</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4686</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9040</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14980</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14980</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,7 +415,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -673,32 +676,32 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="#,##0">
+                <c:pt idx="0">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2312421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17911279999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4008978000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.882545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.9428971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.9428971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4249906000000001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
                   <c:v>7.1230355000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.28586E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43360870000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2555</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2312421</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17911279999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4008978000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51.882545</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.9428971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,37 +713,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>10819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18713</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1910</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>923</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10819</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2419</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3475</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9490</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15350</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15350</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,7 +774,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2071,15 +2074,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>282892</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>145732</xdr:rowOff>
+      <xdr:colOff>92392</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1140142</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>170497</xdr:rowOff>
+      <xdr:colOff>949642</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155257</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2107,15 +2110,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>113347</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>151447</xdr:rowOff>
+      <xdr:colOff>21907</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1048702</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>172402</xdr:rowOff>
+      <xdr:colOff>957262</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>111442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2443,7 +2446,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2454,7 +2457,7 @@
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2485,291 +2488,296 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1910</v>
+        <v>9810</v>
       </c>
       <c r="B2" s="1">
-        <v>1910</v>
+        <v>10819</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4">
-        <v>7.1230355000000003</v>
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2555</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>72</v>
+        <v>2328</v>
       </c>
       <c r="B3" s="1">
-        <v>96</v>
+        <v>2419</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
-        <v>1.28586E-2</v>
+        <v>1.2312421</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>732</v>
+        <v>3486</v>
       </c>
       <c r="B4" s="1">
-        <v>923</v>
+        <v>3475</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1">
-        <v>0.43360870000000001</v>
+        <v>0.17911279999999999</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>9810</v>
+        <v>4686</v>
       </c>
       <c r="B5" s="1">
-        <v>10819</v>
+        <v>4759</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
-        <v>2555</v>
+        <v>5.4008978000000001</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>2328</v>
+        <v>9040</v>
       </c>
       <c r="B6" s="1">
-        <v>2419</v>
+        <v>9490</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1">
-        <v>1.2312421</v>
+        <v>51.882545</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>3486</v>
+        <v>14980</v>
       </c>
       <c r="B7" s="1">
-        <v>3475</v>
+        <v>15350</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1">
-        <v>0.17911279999999999</v>
+        <v>11.9428971</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>4686</v>
+        <v>14980</v>
       </c>
       <c r="B8" s="1">
-        <v>4759</v>
+        <v>15350</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1">
-        <v>5.4008978000000001</v>
+        <v>11.9428971</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>9040</v>
+        <v>17836</v>
       </c>
       <c r="B9" s="1">
-        <v>9490</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>41</v>
-      </c>
-      <c r="E9" s="2">
-        <v>8</v>
+        <v>18713</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1">
-        <v>51.882545</v>
+        <v>5.4249906000000001</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>14980</v>
+        <v>1910</v>
       </c>
       <c r="B10" s="1">
-        <v>15350</v>
+        <v>1910</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1">
-        <v>11.9428971</v>
+      <c r="G10" s="4">
+        <v>7.1230355000000003</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>14980</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1">
-        <v>15350</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G11" s="1">
-        <v>11.9428971</v>
+        <v>1.28586E-2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>17836</v>
+        <v>732</v>
       </c>
       <c r="B12" s="1">
-        <v>18713</v>
-      </c>
-      <c r="C12" s="1">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43</v>
-      </c>
-      <c r="E12" s="1">
+        <v>923</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
         <v>9</v>
       </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1">
-        <v>5.4249906000000001</v>
+        <v>0.43360870000000001</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H12" xr:uid="{29EF1482-4F5B-439D-86FF-FD20197954C3}">
+    <sortState ref="A2:H12">
+      <sortCondition ref="H1:H12"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
